--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed3/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.424</v>
+        <v>16.609</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.404</v>
+        <v>-8.402999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.12</v>
+        <v>-7.290000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.361</v>
       </c>
     </row>
     <row r="16">
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.141999999999999</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.588</v>
+        <v>16.396</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.14</v>
+        <v>16.578</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.894</v>
+        <v>16.568</v>
       </c>
     </row>
     <row r="32">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.081999999999999</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.318999999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1593,10 +1593,10 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.904000000000001</v>
+        <v>-7.188</v>
       </c>
       <c r="E68" t="n">
-        <v>18.11</v>
+        <v>17.777</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="77">
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.840000000000001</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.181999999999999</v>
+        <v>-8.08</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.674</v>
+        <v>16.436</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.526</v>
+        <v>16.332</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.82</v>
+        <v>16.325</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.15</v>
+        <v>16.299</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.652</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.617</v>
       </c>
     </row>
   </sheetData>
